--- a/AdditionalData_Final/EasySportsList.xlsx
+++ b/AdditionalData_Final/EasySportsList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>SPORT</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Basketball</t>
-  </si>
-  <si>
-    <t>Judo</t>
   </si>
   <si>
     <t>Shooting</t>
@@ -420,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,12 +500,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>